--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data18.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data18.xlsx
@@ -754,16 +754,16 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3268059342494149</v>
+        <v>0.3268050968679707</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3558857398113607</v>
+        <v>-0.3558131505870023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24218167837830143</v>
+        <v>0.24187807272612488</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0292685572185407</v>
+        <v>0.029254203579468233</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -777,16 +777,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3257069733494639</v>
+        <v>0.3257074076746031</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.17972858612691392</v>
+        <v>-0.17882637491601638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3004113666019678</v>
+        <v>0.3007137063528548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10208178849037354</v>
+        <v>0.10209080293552361</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -800,16 +800,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3227169901946217</v>
+        <v>0.32271807864034047</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1465725054282714</v>
+        <v>-0.14618067591090592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31318760413277963</v>
+        <v>0.31336159071608916</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10008006960413286</v>
+        <v>0.10008058609990302</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -823,16 +823,16 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3197487836877138</v>
+        <v>0.3197503515165035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.11910617339075877</v>
+        <v>-0.11905009932841819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3242287424035572</v>
+        <v>0.3243190186007415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0989172388704207</v>
+        <v>0.09891821820889822</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -846,16 +846,16 @@
         <v>15.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.30540208380356904</v>
+        <v>0.3054055563395573</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.044247860519891664</v>
+        <v>-0.04483730465733409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35646566876568453</v>
+        <v>0.3564002602751797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09330223139247419</v>
+        <v>0.09330512947250798</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -869,16 +869,16 @@
         <v>30.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2854331302415179</v>
+        <v>0.2854380841919028</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.020083478614704144</v>
+        <v>-0.02064939189664554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.36755093091698854</v>
+        <v>0.3675324126139491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08548486254133632</v>
+        <v>0.0854895826197215</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -892,16 +892,16 @@
         <v>60.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2510219706321274</v>
+        <v>0.2510260711145422</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.059090235731430414</v>
+        <v>-0.05929400730216192</v>
       </c>
       <c r="D8" t="n">
-        <v>0.34982200819353554</v>
+        <v>0.3499062565858647</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07195168597657593</v>
+        <v>0.0719571863156692</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -915,16 +915,16 @@
         <v>120.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2025546191559244</v>
+        <v>0.20254912262354596</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.16943774990565372</v>
+        <v>-0.16944518675147363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30431270997429805</v>
+        <v>0.3042886917847473</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05232148890969255</v>
+        <v>0.05232269330879146</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -938,16 +938,16 @@
         <v>240.0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.16394587159303797</v>
+        <v>0.16392135817098155</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.29702725526439105</v>
+        <v>-0.29704125747033305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25989565802409326</v>
+        <v>0.2596576656747015</v>
       </c>
       <c r="E10" t="n">
-        <v>0.033146690840956575</v>
+        <v>0.03313684727237356</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
